--- a/results_table.xlsx
+++ b/results_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\potyaga2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\potyaga2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98FA3969-6AAB-46D2-8831-399A7B2E2685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4745148-BC9D-4F8C-91A0-294ABDB52D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F297DB87-2DD7-4E5B-86A0-7C7B93BFDF2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Model</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>ResnNet50 (20 epochs)</t>
-  </si>
-  <si>
     <t>vanilla</t>
   </si>
   <si>
@@ -57,16 +54,28 @@
   </si>
   <si>
     <t>baseline model with baseline dataset</t>
+  </si>
+  <si>
+    <t>ResNet50 (20 epochs)</t>
+  </si>
+  <si>
+    <t>ResNet101(20 epochs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6937BE-8D3B-4A88-B0FC-A4D4287F4C73}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,32 +434,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.83289999999999997</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
